--- a/biology/Botanique/Pius_Font_i_Quer/Pius_Font_i_Quer.xlsx
+++ b/biology/Botanique/Pius_Font_i_Quer/Pius_Font_i_Quer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pius Font i Quer, né à Lerida le 9 avril 1888 et mort à Barcelone le 2 janvier 1964, est un botaniste, taxonomiste, phytogéographe, pharmacien et chimiste espagnol, qui s'est distingué comme l'un des noms les plus importants de la science botanique espagnole du milieu du XXe siècle. C'est aussi un grand professeur et un grand vulgarisateur. Dans ses œuvres en castillan, il est cité avec une version castillane de son nom : Pío Font Quer.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passe son enfance à Manresa, où une école secondaire porte son nom. Il obtient son doctorat en pharmacie en 1914 avec une thèse sur la flore de Bages.
 Il est également professeur de pharmacie et de botanique à l'Université de Barcelone ainsi que professeur à l'École d'agriculture. De 1931 à 1934, il est président de l'Institut Catalan d'Histoire Naturelle, une organisation privée très importante dans l'histoire des sciences naturelles espagnoles, dont il dirige aussi la section botanique pendant le régime de Franco et jusqu'à sa mort. En 1934, Font i Quer sépare le département de botanique du Musée des sciences naturelles et le transforme en une entité autonome, appelée Institut botanique de Barcelone (es). Son objectif principal est d'étudier les collections botaniques et de promouvoir la recherche.
@@ -520,7 +534,7 @@
 Ses recherches couvrent l'ensemble de la péninsule ibérique et les régions montagneuses du Maroc sous contrôle espagnol, vers lesquelles il organise des excursions de collecte entre 1927 et 1932. De ces collections et d'autres, qui lui avaient été confiées depuis ses premières années, il tire son ouvrage Iter Maroccanum (1928-1932), une collection d'exsiccata essentielle pour l'investigation de la flore de cette partie du monde. Il travaille assidûment, notamment en Catalogne, Valence et Ibiza et Formentera, ainsi que dans les montagnes d'Andalousie orientale.
 Font i Quer participe à plusieurs travaux collectifs et dirige certains d'entre eux. Il est notamment un grand formateur (dont les ouvrages sont également populaires) de la terminologie botanique populaire et scientifique en langues catalane et espagnole. En ce sens, le Dictionnaire de Botanique (1953) se distingue, grâce auquel le vocabulaire de cette science jouit d'un degré de cohérence lexicale en espagnol qui fait souvent défaut aux autres. Il est le coordinateur de la lexicographie botanique du dictionnaire catalan de Pompeu Fabra.
 Font i Quer est également l'auteur de l'ouvrage castillan le plus connu, continuellement réédité, sur la flore pharmaceutique : Plantas medicinales (Plantes médicinales). Il est sous-titré El Dioscórides renovado (Le Dioscoride rénové), pour honorer les anciennes révisions Renaissance de l'œuvre de Dioscoride, en particulier celles d'Andrés Laguna et d'Andrea Mattioli. C'est une œuvre qui se distingue par sa qualité littéraire et essayistique, ainsi que par la richesse et l'accessibilité de l'information qu'elle contient.
-Il a décrit au cours de sa vie plus de 300 taxons différents[1].
+Il a décrit au cours de sa vie plus de 300 taxons différents.
 </t>
         </is>
       </c>
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Éponymie
-Les espèces et sous-espèces dédiées à Font i Quer portent l'épithète spécifique fontqueri, dérivée de la version latinisée de leur nom de famille. Il y en a environ 100[2], dont les 18 noms corrects suivants[3] :
+          <t>Éponymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces et sous-espèces dédiées à Font i Quer portent l'épithète spécifique fontqueri, dérivée de la version latinisée de leur nom de famille. Il y en a environ 100, dont les 18 noms corrects suivants :
 Echinops fontqueri Pau
 Helichrysum × fontqueri J.M.Aparicio, D.Mesa, J.Moro &amp; F.Royo
 Jurinea fontqueri Cuatrec.
@@ -599,9 +618,11 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(es) P Font Quer, Diccionario de botánica,, Editorial Labor, 1953 (OCLC 678925, lire en ligne)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(es) P Font Quer, Diccionario de botánica Editorial Labor, 1953 (OCLC 678925, lire en ligne)
 (es) P Font Quer, Plantas medicinales, el Dioscórides renovado., Editorial Labor, 1962 (ISBN 978-84-335-6151-0, OCLC 14534664, lire en ligne)
 (ca) Juan Cadevall y diars, P Font Quer, Angel Sallent y Gotés et Institut d'Estudis Catalans, Flora de Catalunya: enumeració y descripció de les plantes vasculars espontanies de l'antic principat fins avuy conegudes y de les més importants que s'hi cultiven, Institut de Ciencies, 1915 (OCLC 697780186, lire en ligne)
 (ca) Pius Font i Quer, Oriol de Bolòs et Eugeni Sierra i Ràfols, Iniciació a la botànica: morfologia externa, Fontalba, 1979 (ISBN 978-84-85530-08-3, OCLC 801873801, lire en ligne)
